--- a/priorities/axe_rules.xlsx
+++ b/priorities/axe_rules.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="427">
   <si>
     <t>url</t>
   </si>
@@ -766,9 +766,6 @@
     <t>2.5.4 Motion Actuation</t>
   </si>
   <si>
-    <t>Functionality that can only be activated via devicemotion events (e.g., shaking or tilting)</t>
-  </si>
-  <si>
     <t>An inability to disable motion actuation</t>
   </si>
   <si>
@@ -850,9 +847,6 @@
     <t>https://www.w3.org/WAI/WCAG21/Techniques/failures/F39.html</t>
   </si>
   <si>
-    <t>Omitting the alt attribute or text alternative on img elements, area elements, and input elements of type image""</t>
-  </si>
-  <si>
     <t>https://www.w3.org/WAI/WCAG21/Techniques/failures/F65.html</t>
   </si>
   <si>
@@ -1313,6 +1307,12 @@
   </si>
   <si>
     <t>A webpage or web app that includes single-key shortcuts not including a control that allows users to turn the shortcuts off or a control that allows users to change the shortcuts to key combinations that include keys that are not upper or lower-case letters, punctuation, number, or symbol characters.</t>
+  </si>
+  <si>
+    <t>Omitting the alt attribute or text alternative on img elements, area elements, and input elements of type "image"</t>
+  </si>
+  <si>
+    <t>Functionality that can only be activated via device motion events (e.g., shaking or tilting)</t>
   </si>
 </sst>
 </file>
@@ -1678,23 +1678,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84:E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="122" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>218</v>
       </c>
@@ -1707,14 +1709,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>219</v>
       </c>
@@ -1727,14 +1729,14 @@
       <c r="D2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>179</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -1747,14 +1749,14 @@
       <c r="D3" t="s">
         <v>169</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>219</v>
       </c>
@@ -1767,14 +1769,14 @@
       <c r="D4" t="s">
         <v>169</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>181</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -1787,14 +1789,14 @@
       <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>182</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -1807,14 +1809,14 @@
       <c r="D6" t="s">
         <v>169</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>182</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -1827,14 +1829,14 @@
       <c r="D7" t="s">
         <v>170</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>182</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -1847,14 +1849,14 @@
       <c r="D8" t="s">
         <v>169</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>183</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -1867,14 +1869,14 @@
       <c r="D9" t="s">
         <v>169</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>179</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -1887,14 +1889,14 @@
       <c r="D10" t="s">
         <v>169</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>180</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -1907,14 +1909,14 @@
       <c r="D11" t="s">
         <v>169</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>180</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -1927,14 +1929,14 @@
       <c r="D12" t="s">
         <v>169</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>184</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -1947,14 +1949,14 @@
       <c r="D13" t="s">
         <v>171</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>181</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>219</v>
       </c>
@@ -1967,14 +1969,14 @@
       <c r="D14" t="s">
         <v>169</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>180</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>219</v>
       </c>
@@ -1987,14 +1989,14 @@
       <c r="D15" t="s">
         <v>169</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>180</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -2007,14 +2009,14 @@
       <c r="D16" t="s">
         <v>171</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>180</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>219</v>
       </c>
@@ -2027,14 +2029,14 @@
       <c r="D17" t="s">
         <v>170</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>181</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -2047,14 +2049,14 @@
       <c r="D18" t="s">
         <v>171</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>181</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -2067,14 +2069,14 @@
       <c r="D19" t="s">
         <v>171</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>181</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -2087,14 +2089,14 @@
       <c r="D20" t="s">
         <v>169</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>181</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
@@ -2107,14 +2109,14 @@
       <c r="D21" t="s">
         <v>185</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>181</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -2127,14 +2129,14 @@
       <c r="D22" t="s">
         <v>171</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>181</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -2147,14 +2149,14 @@
       <c r="D23" t="s">
         <v>169</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>181</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -2167,14 +2169,14 @@
       <c r="D24" t="s">
         <v>169</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>187</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>219</v>
       </c>
@@ -2187,14 +2189,14 @@
       <c r="D25" t="s">
         <v>171</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>188</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>219</v>
       </c>
@@ -2207,14 +2209,14 @@
       <c r="D26" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -2227,14 +2229,14 @@
       <c r="D27" t="s">
         <v>169</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>190</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>219</v>
       </c>
@@ -2247,14 +2249,14 @@
       <c r="D28" t="s">
         <v>170</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>180</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -2267,14 +2269,14 @@
       <c r="D29" t="s">
         <v>169</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>181</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>219</v>
       </c>
@@ -2287,14 +2289,14 @@
       <c r="D30" t="s">
         <v>171</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>180</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>219</v>
       </c>
@@ -2307,14 +2309,14 @@
       <c r="D31" t="s">
         <v>171</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>181</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>219</v>
       </c>
@@ -2327,14 +2329,14 @@
       <c r="D32" t="s">
         <v>171</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>181</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>219</v>
       </c>
@@ -2347,14 +2349,14 @@
       <c r="D33" t="s">
         <v>170</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>192</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>219</v>
       </c>
@@ -2367,14 +2369,14 @@
       <c r="D34" t="s">
         <v>170</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>193</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -2387,14 +2389,14 @@
       <c r="D35" t="s">
         <v>169</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>194</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -2407,14 +2409,14 @@
       <c r="D36" t="s">
         <v>169</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>180</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -2427,14 +2429,14 @@
       <c r="D37" t="s">
         <v>169</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>181</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>219</v>
       </c>
@@ -2447,14 +2449,14 @@
       <c r="D38" t="s">
         <v>169</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>180</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -2467,14 +2469,14 @@
       <c r="D39" t="s">
         <v>185</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>181</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>219</v>
       </c>
@@ -2487,14 +2489,14 @@
       <c r="D40" t="s">
         <v>171</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>181</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>219</v>
       </c>
@@ -2507,14 +2509,14 @@
       <c r="D41" t="s">
         <v>169</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>181</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>219</v>
       </c>
@@ -2527,14 +2529,14 @@
       <c r="D42" t="s">
         <v>185</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>180</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>219</v>
       </c>
@@ -2547,14 +2549,14 @@
       <c r="D43" t="s">
         <v>170</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>181</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -2567,14 +2569,14 @@
       <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>181</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>219</v>
       </c>
@@ -2587,14 +2589,14 @@
       <c r="D45" t="s">
         <v>171</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>199</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -2607,14 +2609,14 @@
       <c r="D46" t="s">
         <v>169</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>181</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -2627,14 +2629,14 @@
       <c r="D47" t="s">
         <v>170</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>199</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -2647,14 +2649,14 @@
       <c r="D48" t="s">
         <v>171</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>193</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -2667,14 +2669,14 @@
       <c r="D49" t="s">
         <v>169</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>181</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -2687,14 +2689,14 @@
       <c r="D50" t="s">
         <v>169</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>181</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>219</v>
       </c>
@@ -2707,14 +2709,14 @@
       <c r="D51" t="s">
         <v>170</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>181</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>219</v>
       </c>
@@ -2727,14 +2729,14 @@
       <c r="D52" t="s">
         <v>185</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>181</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -2747,14 +2749,14 @@
       <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>203</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -2767,14 +2769,14 @@
       <c r="D54" t="s">
         <v>171</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>180</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>219</v>
       </c>
@@ -2787,14 +2789,14 @@
       <c r="D55" t="s">
         <v>185</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>180</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>219</v>
       </c>
@@ -2807,14 +2809,14 @@
       <c r="D56" t="s">
         <v>171</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>180</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>219</v>
       </c>
@@ -2827,14 +2829,14 @@
       <c r="D57" t="s">
         <v>171</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>181</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>219</v>
       </c>
@@ -2847,14 +2849,14 @@
       <c r="D58" t="s">
         <v>171</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>180</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>219</v>
       </c>
@@ -2867,14 +2869,14 @@
       <c r="D59" t="s">
         <v>169</v>
       </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>190</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>219</v>
       </c>
@@ -2887,14 +2889,14 @@
       <c r="D60" t="s">
         <v>171</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>180</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>219</v>
       </c>
@@ -2907,14 +2909,14 @@
       <c r="D61" t="s">
         <v>169</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>199</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>219</v>
       </c>
@@ -2927,14 +2929,14 @@
       <c r="D62" t="s">
         <v>170</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>193</v>
       </c>
-      <c r="F62" t="s">
+      <c r="H62" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>219</v>
       </c>
@@ -2947,14 +2949,14 @@
       <c r="D63" t="s">
         <v>169</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>182</v>
       </c>
-      <c r="F63" t="s">
+      <c r="H63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>219</v>
       </c>
@@ -2967,14 +2969,14 @@
       <c r="D64" t="s">
         <v>169</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>208</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>219</v>
       </c>
@@ -2987,14 +2989,14 @@
       <c r="D65" t="s">
         <v>169</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>183</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>219</v>
       </c>
@@ -3007,14 +3009,14 @@
       <c r="D66" t="s">
         <v>170</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>183</v>
       </c>
-      <c r="F66" t="s">
+      <c r="H66" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>219</v>
       </c>
@@ -3027,14 +3029,14 @@
       <c r="D67" t="s">
         <v>170</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>211</v>
       </c>
-      <c r="F67" t="s">
+      <c r="H67" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>219</v>
       </c>
@@ -3047,14 +3049,14 @@
       <c r="D68" t="s">
         <v>169</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>180</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H68" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>219</v>
       </c>
@@ -3067,14 +3069,14 @@
       <c r="D69" t="s">
         <v>170</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>181</v>
       </c>
-      <c r="F69" t="s">
+      <c r="H69" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>219</v>
       </c>
@@ -3087,14 +3089,14 @@
       <c r="D70" t="s">
         <v>170</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>193</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -3107,14 +3109,14 @@
       <c r="D71" t="s">
         <v>170</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>193</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>219</v>
       </c>
@@ -3127,14 +3129,14 @@
       <c r="D72" t="s">
         <v>171</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>181</v>
       </c>
-      <c r="F72" t="s">
+      <c r="H72" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -3147,14 +3149,14 @@
       <c r="D73" t="s">
         <v>171</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>181</v>
       </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -3167,14 +3169,14 @@
       <c r="D74" t="s">
         <v>185</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>181</v>
       </c>
-      <c r="F74" t="s">
+      <c r="H74" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -3187,14 +3189,14 @@
       <c r="D75" t="s">
         <v>169</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>181</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>219</v>
       </c>
@@ -3207,14 +3209,14 @@
       <c r="D76" t="s">
         <v>169</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>208</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H76" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>219</v>
       </c>
@@ -3227,14 +3229,14 @@
       <c r="D77" t="s">
         <v>185</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>180</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H77" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -3247,14 +3249,14 @@
       <c r="D78" t="s">
         <v>185</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>180</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H78" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -3267,14 +3269,14 @@
       <c r="D79" t="s">
         <v>170</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>181</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H79" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>219</v>
       </c>
@@ -3287,14 +3289,14 @@
       <c r="D80" t="s">
         <v>171</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>181</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H80" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>219</v>
       </c>
@@ -3307,14 +3309,14 @@
       <c r="D81" t="s">
         <v>169</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>181</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H81" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>219</v>
       </c>
@@ -3327,14 +3329,14 @@
       <c r="D82" t="s">
         <v>185</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>216</v>
       </c>
-      <c r="F82" t="s">
+      <c r="H82" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -3347,330 +3349,450 @@
       <c r="D83" t="s">
         <v>171</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>216</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" t="s">
         <v>252</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" t="s">
         <v>253</v>
       </c>
-      <c r="E84" t="s">
+      <c r="C85" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" t="s">
+        <v>169</v>
+      </c>
+      <c r="G85" t="s">
+        <v>413</v>
+      </c>
+      <c r="H85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
+        <v>169</v>
+      </c>
+      <c r="G86" t="s">
+        <v>417</v>
+      </c>
+      <c r="H86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" t="s">
+        <v>169</v>
+      </c>
+      <c r="G87" t="s">
+        <v>416</v>
+      </c>
+      <c r="H87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>423</v>
+      </c>
+      <c r="C88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" t="s">
+        <v>169</v>
+      </c>
+      <c r="G88" t="s">
+        <v>416</v>
+      </c>
+      <c r="H88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" t="s">
+        <v>169</v>
+      </c>
+      <c r="G89" t="s">
+        <v>420</v>
+      </c>
+      <c r="H89" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" t="s">
+        <v>169</v>
+      </c>
+      <c r="G90" t="s">
+        <v>181</v>
+      </c>
+      <c r="H90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" t="s">
+        <v>169</v>
+      </c>
+      <c r="G91" t="s">
+        <v>422</v>
+      </c>
+      <c r="H91" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>302</v>
+      </c>
+      <c r="C92" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" t="s">
+        <v>171</v>
+      </c>
+      <c r="F92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" t="s">
         <v>180</v>
       </c>
-      <c r="F84" t="s">
+      <c r="H92" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" t="s">
+        <v>374</v>
+      </c>
+      <c r="C93" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" t="s">
+        <v>169</v>
+      </c>
+      <c r="G93" t="s">
+        <v>420</v>
+      </c>
+      <c r="H93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" t="s">
+        <v>340</v>
+      </c>
+      <c r="D94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G94" t="s">
+        <v>421</v>
+      </c>
+      <c r="H94" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>264</v>
+      </c>
+      <c r="D95" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" t="s">
+        <v>413</v>
+      </c>
+      <c r="H95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>311</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96" t="s">
+        <v>417</v>
+      </c>
+      <c r="H96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" t="s">
+        <v>316</v>
+      </c>
+      <c r="D97" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" t="s">
+        <v>169</v>
+      </c>
+      <c r="G97" t="s">
+        <v>420</v>
+      </c>
+      <c r="H97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" t="s">
+        <v>346</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" t="s">
+        <v>180</v>
+      </c>
+      <c r="H98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" t="s">
+        <v>169</v>
+      </c>
+      <c r="G99" t="s">
+        <v>413</v>
+      </c>
+      <c r="H99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" t="s">
+        <v>169</v>
+      </c>
+      <c r="G100" t="s">
+        <v>420</v>
+      </c>
+      <c r="H100" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>363</v>
+      </c>
+      <c r="C101" t="s">
+        <v>364</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" t="s">
+        <v>414</v>
+      </c>
+      <c r="H101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>219</v>
+      </c>
+      <c r="B102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="F102" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" t="s">
+        <v>414</v>
+      </c>
+      <c r="H102" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>219</v>
-      </c>
-      <c r="B85" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85" t="s">
-        <v>255</v>
-      </c>
-      <c r="E85" t="s">
-        <v>415</v>
-      </c>
-      <c r="F85" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>219</v>
-      </c>
-      <c r="B86" t="s">
-        <v>256</v>
-      </c>
-      <c r="C86" t="s">
-        <v>257</v>
-      </c>
-      <c r="E86" t="s">
-        <v>419</v>
-      </c>
-      <c r="F86" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" t="s">
-        <v>259</v>
-      </c>
-      <c r="E87" t="s">
-        <v>418</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>425</v>
-      </c>
-      <c r="C88" t="s">
-        <v>262</v>
-      </c>
-      <c r="E88" t="s">
-        <v>418</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E89" t="s">
-        <v>422</v>
-      </c>
-      <c r="F89" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>333</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E90" t="s">
-        <v>181</v>
-      </c>
-      <c r="F90" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>219</v>
-      </c>
-      <c r="B91" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" t="s">
-        <v>264</v>
-      </c>
-      <c r="E91" t="s">
-        <v>424</v>
-      </c>
-      <c r="F91" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>304</v>
-      </c>
-      <c r="C92" t="s">
-        <v>305</v>
-      </c>
-      <c r="E92" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>219</v>
-      </c>
-      <c r="B93" t="s">
-        <v>376</v>
-      </c>
-      <c r="C93" t="s">
-        <v>377</v>
-      </c>
-      <c r="E93" t="s">
-        <v>422</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>219</v>
-      </c>
-      <c r="B94" t="s">
-        <v>341</v>
-      </c>
-      <c r="C94" t="s">
-        <v>342</v>
-      </c>
-      <c r="E94" t="s">
-        <v>423</v>
-      </c>
-      <c r="F94" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>219</v>
-      </c>
-      <c r="B95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C95" t="s">
-        <v>265</v>
-      </c>
-      <c r="E95" t="s">
-        <v>415</v>
-      </c>
-      <c r="F95" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" t="s">
+        <v>282</v>
+      </c>
+      <c r="D103" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" t="s">
+        <v>414</v>
+      </c>
+      <c r="H103" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>313</v>
-      </c>
-      <c r="C96" t="s">
-        <v>314</v>
-      </c>
-      <c r="E96" t="s">
-        <v>419</v>
-      </c>
-      <c r="F96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>219</v>
-      </c>
-      <c r="B97" t="s">
-        <v>317</v>
-      </c>
-      <c r="C97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E97" t="s">
-        <v>422</v>
-      </c>
-      <c r="F97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" t="s">
-        <v>347</v>
-      </c>
-      <c r="C98" t="s">
-        <v>348</v>
-      </c>
-      <c r="E98" t="s">
-        <v>180</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>219</v>
-      </c>
-      <c r="B99" t="s">
-        <v>306</v>
-      </c>
-      <c r="C99" t="s">
-        <v>307</v>
-      </c>
-      <c r="E99" t="s">
-        <v>415</v>
-      </c>
-      <c r="F99" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>219</v>
-      </c>
-      <c r="B100" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100" t="s">
-        <v>267</v>
-      </c>
-      <c r="E100" t="s">
-        <v>422</v>
-      </c>
-      <c r="F100" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" t="s">
-        <v>366</v>
-      </c>
-      <c r="E101" t="s">
-        <v>416</v>
-      </c>
-      <c r="F101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>219</v>
-      </c>
-      <c r="B102" t="s">
-        <v>300</v>
-      </c>
-      <c r="C102" t="s">
-        <v>301</v>
-      </c>
-      <c r="E102" t="s">
-        <v>416</v>
-      </c>
-      <c r="F102" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>219</v>
-      </c>
-      <c r="B103" t="s">
-        <v>283</v>
-      </c>
-      <c r="C103" t="s">
-        <v>284</v>
-      </c>
-      <c r="E103" t="s">
-        <v>416</v>
-      </c>
-      <c r="F103" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>219</v>
       </c>
@@ -3678,558 +3800,768 @@
         <v>221</v>
       </c>
       <c r="C104" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" t="s">
+        <v>169</v>
+      </c>
+      <c r="G104" t="s">
+        <v>414</v>
+      </c>
+      <c r="H104" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>357</v>
+      </c>
+      <c r="C105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G105" t="s">
+        <v>420</v>
+      </c>
+      <c r="H105" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+      <c r="F106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G106" t="s">
+        <v>420</v>
+      </c>
+      <c r="H106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" t="s">
+        <v>185</v>
+      </c>
+      <c r="F107" t="s">
+        <v>169</v>
+      </c>
+      <c r="G107" t="s">
+        <v>413</v>
+      </c>
+      <c r="H107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" t="s">
+        <v>185</v>
+      </c>
+      <c r="F108" t="s">
+        <v>169</v>
+      </c>
+      <c r="G108" t="s">
+        <v>413</v>
+      </c>
+      <c r="H108" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>333</v>
+      </c>
+      <c r="C109" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F109" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" t="s">
+        <v>420</v>
+      </c>
+      <c r="H109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" t="s">
+        <v>420</v>
+      </c>
+      <c r="H110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>382</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" t="s">
+        <v>414</v>
+      </c>
+      <c r="H111" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
         <v>285</v>
       </c>
-      <c r="E104" t="s">
+      <c r="C112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" t="s">
+        <v>169</v>
+      </c>
+      <c r="G112" t="s">
+        <v>414</v>
+      </c>
+      <c r="H112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" t="s">
+        <v>169</v>
+      </c>
+      <c r="F113" t="s">
+        <v>169</v>
+      </c>
+      <c r="G113" t="s">
+        <v>420</v>
+      </c>
+      <c r="H113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" t="s">
+        <v>288</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="F114" t="s">
+        <v>169</v>
+      </c>
+      <c r="G114" t="s">
+        <v>413</v>
+      </c>
+      <c r="H114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115" t="s">
+        <v>171</v>
+      </c>
+      <c r="F115" t="s">
+        <v>169</v>
+      </c>
+      <c r="G115" t="s">
+        <v>417</v>
+      </c>
+      <c r="H115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" t="s">
+        <v>169</v>
+      </c>
+      <c r="G116" t="s">
+        <v>413</v>
+      </c>
+      <c r="H116" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" t="s">
+        <v>171</v>
+      </c>
+      <c r="F117" t="s">
+        <v>169</v>
+      </c>
+      <c r="G117" t="s">
+        <v>413</v>
+      </c>
+      <c r="H117" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" t="s">
+        <v>344</v>
+      </c>
+      <c r="D118" t="s">
+        <v>171</v>
+      </c>
+      <c r="F118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G118" t="s">
+        <v>417</v>
+      </c>
+      <c r="H118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G119" t="s">
+        <v>417</v>
+      </c>
+      <c r="H119" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>219</v>
+      </c>
+      <c r="B120" t="s">
+        <v>327</v>
+      </c>
+      <c r="C120" t="s">
+        <v>328</v>
+      </c>
+      <c r="D120" t="s">
+        <v>171</v>
+      </c>
+      <c r="F120" t="s">
+        <v>169</v>
+      </c>
+      <c r="G120" t="s">
+        <v>414</v>
+      </c>
+      <c r="H120" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>329</v>
+      </c>
+      <c r="C121" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" t="s">
+        <v>169</v>
+      </c>
+      <c r="G121" t="s">
+        <v>420</v>
+      </c>
+      <c r="H121" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" t="s">
+        <v>338</v>
+      </c>
+      <c r="D122" t="s">
+        <v>171</v>
+      </c>
+      <c r="F122" t="s">
+        <v>169</v>
+      </c>
+      <c r="G122" t="s">
+        <v>420</v>
+      </c>
+      <c r="H122" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" t="s">
+        <v>373</v>
+      </c>
+      <c r="D123" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" t="s">
+        <v>169</v>
+      </c>
+      <c r="G123" t="s">
+        <v>414</v>
+      </c>
+      <c r="H123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" t="s">
+        <v>351</v>
+      </c>
+      <c r="D124" t="s">
+        <v>170</v>
+      </c>
+      <c r="F124" t="s">
+        <v>169</v>
+      </c>
+      <c r="G124" t="s">
+        <v>420</v>
+      </c>
+      <c r="H124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
+        <v>425</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" t="s">
+        <v>169</v>
+      </c>
+      <c r="F125" t="s">
+        <v>169</v>
+      </c>
+      <c r="G125" t="s">
+        <v>417</v>
+      </c>
+      <c r="H125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>361</v>
+      </c>
+      <c r="C126" t="s">
+        <v>362</v>
+      </c>
+      <c r="D126" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" t="s">
+        <v>169</v>
+      </c>
+      <c r="G126" t="s">
         <v>416</v>
       </c>
-      <c r="F104" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>359</v>
-      </c>
-      <c r="C105" t="s">
-        <v>360</v>
-      </c>
-      <c r="E105" t="s">
-        <v>422</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="H126" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>385</v>
-      </c>
-      <c r="B106" t="s">
-        <v>361</v>
-      </c>
-      <c r="C106" t="s">
-        <v>362</v>
-      </c>
-      <c r="E106" t="s">
-        <v>422</v>
-      </c>
-      <c r="F106" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>219</v>
-      </c>
-      <c r="B107" t="s">
-        <v>268</v>
-      </c>
-      <c r="C107" t="s">
-        <v>269</v>
-      </c>
-      <c r="E107" t="s">
-        <v>415</v>
-      </c>
-      <c r="F107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>219</v>
-      </c>
-      <c r="B108" t="s">
-        <v>270</v>
-      </c>
-      <c r="C108" t="s">
-        <v>271</v>
-      </c>
-      <c r="E108" t="s">
-        <v>415</v>
-      </c>
-      <c r="F108" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" t="s">
-        <v>336</v>
-      </c>
-      <c r="E109" t="s">
-        <v>422</v>
-      </c>
-      <c r="F109" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>337</v>
-      </c>
-      <c r="C110" t="s">
-        <v>338</v>
-      </c>
-      <c r="E110" t="s">
-        <v>422</v>
-      </c>
-      <c r="F110" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" t="s">
-        <v>384</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E111" t="s">
-        <v>416</v>
-      </c>
-      <c r="F111" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>219</v>
-      </c>
-      <c r="B112" t="s">
-        <v>287</v>
-      </c>
-      <c r="C112" t="s">
-        <v>288</v>
-      </c>
-      <c r="E112" t="s">
-        <v>416</v>
-      </c>
-      <c r="F112" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>219</v>
-      </c>
-      <c r="B113" t="s">
-        <v>349</v>
-      </c>
-      <c r="C113" t="s">
-        <v>350</v>
-      </c>
-      <c r="E113" t="s">
-        <v>422</v>
-      </c>
-      <c r="F113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" t="s">
-        <v>289</v>
-      </c>
-      <c r="C114" t="s">
-        <v>290</v>
-      </c>
-      <c r="E114" t="s">
-        <v>415</v>
-      </c>
-      <c r="F114" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>343</v>
-      </c>
-      <c r="C115" t="s">
-        <v>344</v>
-      </c>
-      <c r="E115" t="s">
-        <v>419</v>
-      </c>
-      <c r="F115" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>219</v>
-      </c>
-      <c r="B116" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" t="s">
-        <v>292</v>
-      </c>
-      <c r="E116" t="s">
-        <v>415</v>
-      </c>
-      <c r="F116" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>302</v>
-      </c>
-      <c r="C117" t="s">
-        <v>303</v>
-      </c>
-      <c r="E117" t="s">
-        <v>415</v>
-      </c>
-      <c r="F117" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>345</v>
-      </c>
-      <c r="C118" t="s">
-        <v>346</v>
-      </c>
-      <c r="E118" t="s">
-        <v>419</v>
-      </c>
-      <c r="F118" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>367</v>
-      </c>
-      <c r="C119" t="s">
-        <v>368</v>
-      </c>
-      <c r="E119" t="s">
-        <v>419</v>
-      </c>
-      <c r="F119" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>219</v>
-      </c>
-      <c r="B120" t="s">
-        <v>329</v>
-      </c>
-      <c r="C120" t="s">
-        <v>330</v>
-      </c>
-      <c r="E120" t="s">
-        <v>416</v>
-      </c>
-      <c r="F120" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>219</v>
-      </c>
-      <c r="B121" t="s">
-        <v>331</v>
-      </c>
-      <c r="C121" t="s">
-        <v>332</v>
-      </c>
-      <c r="E121" t="s">
-        <v>422</v>
-      </c>
-      <c r="F121" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>219</v>
-      </c>
-      <c r="B122" t="s">
-        <v>339</v>
-      </c>
-      <c r="C122" t="s">
-        <v>340</v>
-      </c>
-      <c r="E122" t="s">
-        <v>422</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" t="s">
-        <v>374</v>
-      </c>
-      <c r="C123" t="s">
-        <v>375</v>
-      </c>
-      <c r="E123" t="s">
-        <v>416</v>
-      </c>
-      <c r="F123" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>219</v>
+      </c>
+      <c r="B127" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" t="s">
+        <v>169</v>
+      </c>
+      <c r="G127" t="s">
+        <v>413</v>
+      </c>
+      <c r="H127" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>376</v>
+      </c>
+      <c r="C128" t="s">
+        <v>377</v>
+      </c>
+      <c r="D128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F128" t="s">
+        <v>169</v>
+      </c>
+      <c r="G128" t="s">
+        <v>414</v>
+      </c>
+      <c r="H128" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>219</v>
-      </c>
-      <c r="B124" t="s">
-        <v>352</v>
-      </c>
-      <c r="C124" t="s">
-        <v>353</v>
-      </c>
-      <c r="E124" t="s">
-        <v>422</v>
-      </c>
-      <c r="F124" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" t="s">
-        <v>273</v>
-      </c>
-      <c r="E125" t="s">
-        <v>419</v>
-      </c>
-      <c r="F125" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>363</v>
-      </c>
-      <c r="C126" t="s">
-        <v>364</v>
-      </c>
-      <c r="E126" t="s">
-        <v>418</v>
-      </c>
-      <c r="F126" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>219</v>
-      </c>
-      <c r="B127" t="s">
-        <v>274</v>
-      </c>
-      <c r="C127" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" t="s">
-        <v>415</v>
-      </c>
-      <c r="F127" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" t="s">
-        <v>378</v>
-      </c>
-      <c r="C128" t="s">
-        <v>379</v>
-      </c>
-      <c r="E128" t="s">
-        <v>416</v>
-      </c>
-      <c r="F128" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C129" t="s">
-        <v>321</v>
-      </c>
-      <c r="E129" t="s">
-        <v>412</v>
+        <v>319</v>
+      </c>
+      <c r="D129" t="s">
+        <v>169</v>
       </c>
       <c r="F129" t="s">
+        <v>169</v>
+      </c>
+      <c r="G129" t="s">
+        <v>410</v>
+      </c>
+      <c r="H129" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>371</v>
-      </c>
-      <c r="E130" t="s">
-        <v>415</v>
+        <v>369</v>
+      </c>
+      <c r="D130" t="s">
+        <v>185</v>
       </c>
       <c r="F130" t="s">
+        <v>169</v>
+      </c>
+      <c r="G130" t="s">
+        <v>413</v>
+      </c>
+      <c r="H130" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>220</v>
       </c>
       <c r="C131" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" t="s">
+        <v>169</v>
+      </c>
+      <c r="G131" t="s">
+        <v>413</v>
+      </c>
+      <c r="H131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" t="s">
         <v>276</v>
       </c>
-      <c r="E131" t="s">
-        <v>415</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="D132" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" t="s">
+        <v>169</v>
+      </c>
+      <c r="G132" t="s">
+        <v>413</v>
+      </c>
+      <c r="H132" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" t="s">
+        <v>308</v>
+      </c>
+      <c r="C133" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" t="s">
+        <v>169</v>
+      </c>
+      <c r="G133" t="s">
+        <v>418</v>
+      </c>
+      <c r="H133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" t="s">
+        <v>171</v>
+      </c>
+      <c r="F134" t="s">
+        <v>169</v>
+      </c>
+      <c r="G134" t="s">
+        <v>419</v>
+      </c>
+      <c r="H134" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B135" t="s">
         <v>277</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C135" t="s">
         <v>278</v>
       </c>
-      <c r="E132" t="s">
-        <v>415</v>
-      </c>
-      <c r="F132" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>219</v>
-      </c>
-      <c r="B133" t="s">
-        <v>310</v>
-      </c>
-      <c r="C133" t="s">
-        <v>311</v>
-      </c>
-      <c r="E133" t="s">
-        <v>420</v>
-      </c>
-      <c r="F133" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" t="s">
-        <v>282</v>
-      </c>
-      <c r="E134" t="s">
-        <v>421</v>
-      </c>
-      <c r="F134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>219</v>
-      </c>
-      <c r="B135" t="s">
-        <v>279</v>
-      </c>
-      <c r="C135" t="s">
-        <v>280</v>
-      </c>
-      <c r="E135" t="s">
-        <v>421</v>
+      <c r="D135" t="s">
+        <v>171</v>
       </c>
       <c r="F135" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G135" t="s">
+        <v>419</v>
+      </c>
+      <c r="H135" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>219</v>
       </c>
       <c r="B136" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C136" t="s">
-        <v>373</v>
-      </c>
-      <c r="E136" t="s">
-        <v>415</v>
+        <v>371</v>
+      </c>
+      <c r="D136" t="s">
+        <v>169</v>
       </c>
       <c r="F136" t="s">
+        <v>169</v>
+      </c>
+      <c r="G136" t="s">
+        <v>413</v>
+      </c>
+      <c r="H136" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>219</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C137" t="s">
-        <v>326</v>
-      </c>
-      <c r="E137" t="s">
-        <v>408</v>
+        <v>324</v>
+      </c>
+      <c r="D137" t="s">
+        <v>169</v>
       </c>
       <c r="F137" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G137" t="s">
+        <v>406</v>
+      </c>
+      <c r="H137" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
-      </c>
-      <c r="E138" t="s">
-        <v>415</v>
+        <v>379</v>
+      </c>
+      <c r="D138" t="s">
+        <v>169</v>
       </c>
       <c r="F138" t="s">
+        <v>169</v>
+      </c>
+      <c r="G138" t="s">
+        <v>413</v>
+      </c>
+      <c r="H138" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>219</v>
       </c>
@@ -4237,47 +4569,65 @@
         <v>227</v>
       </c>
       <c r="C139" t="s">
-        <v>322</v>
-      </c>
-      <c r="E139" t="s">
-        <v>412</v>
+        <v>320</v>
+      </c>
+      <c r="D139" t="s">
+        <v>171</v>
       </c>
       <c r="F139" t="s">
+        <v>169</v>
+      </c>
+      <c r="G139" t="s">
+        <v>410</v>
+      </c>
+      <c r="H139" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>312</v>
-      </c>
-      <c r="E140" t="s">
-        <v>420</v>
+        <v>310</v>
+      </c>
+      <c r="D140" t="s">
+        <v>169</v>
       </c>
       <c r="F140" t="s">
+        <v>169</v>
+      </c>
+      <c r="G140" t="s">
+        <v>418</v>
+      </c>
+      <c r="H140" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>219</v>
       </c>
       <c r="B141" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C141" t="s">
-        <v>370</v>
-      </c>
-      <c r="E141" t="s">
-        <v>419</v>
+        <v>368</v>
+      </c>
+      <c r="D141" t="s">
+        <v>170</v>
       </c>
       <c r="F141" t="s">
+        <v>169</v>
+      </c>
+      <c r="G141" t="s">
+        <v>417</v>
+      </c>
+      <c r="H141" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>219</v>
       </c>
@@ -4285,33 +4635,45 @@
         <v>226</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
-      </c>
-      <c r="E142" t="s">
-        <v>412</v>
+        <v>317</v>
+      </c>
+      <c r="D142" t="s">
+        <v>171</v>
       </c>
       <c r="F142" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G142" t="s">
+        <v>410</v>
+      </c>
+      <c r="H142" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
-        <v>357</v>
-      </c>
-      <c r="E143" t="s">
-        <v>416</v>
+        <v>355</v>
+      </c>
+      <c r="D143" t="s">
+        <v>169</v>
       </c>
       <c r="F143" t="s">
+        <v>169</v>
+      </c>
+      <c r="G143" t="s">
+        <v>414</v>
+      </c>
+      <c r="H143" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>219</v>
       </c>
@@ -4319,84 +4681,114 @@
         <v>236</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
-      </c>
-      <c r="E144" t="s">
-        <v>417</v>
+        <v>349</v>
+      </c>
+      <c r="D144" t="s">
+        <v>171</v>
       </c>
       <c r="F144" t="s">
+        <v>169</v>
+      </c>
+      <c r="G144" t="s">
+        <v>415</v>
+      </c>
+      <c r="H144" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>219</v>
       </c>
       <c r="B145" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
-        <v>383</v>
-      </c>
-      <c r="E145" t="s">
-        <v>416</v>
+        <v>381</v>
+      </c>
+      <c r="D145" t="s">
+        <v>171</v>
       </c>
       <c r="F145" t="s">
+        <v>169</v>
+      </c>
+      <c r="G145" t="s">
+        <v>414</v>
+      </c>
+      <c r="H145" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>219</v>
       </c>
       <c r="B146" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" t="s">
+        <v>169</v>
+      </c>
+      <c r="G146" t="s">
+        <v>409</v>
+      </c>
+      <c r="H146" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" t="s">
+        <v>352</v>
+      </c>
+      <c r="C147" t="s">
+        <v>353</v>
+      </c>
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+      <c r="F147" t="s">
+        <v>169</v>
+      </c>
+      <c r="G147" t="s">
+        <v>414</v>
+      </c>
+      <c r="H147" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" t="s">
         <v>293</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>294</v>
       </c>
-      <c r="E146" t="s">
-        <v>411</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="D148" t="s">
+        <v>171</v>
+      </c>
+      <c r="F148" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" t="s">
+        <v>413</v>
+      </c>
+      <c r="H148" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>219</v>
-      </c>
-      <c r="B147" t="s">
-        <v>354</v>
-      </c>
-      <c r="C147" t="s">
-        <v>355</v>
-      </c>
-      <c r="E147" t="s">
-        <v>416</v>
-      </c>
-      <c r="F147" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>219</v>
-      </c>
-      <c r="B148" t="s">
-        <v>295</v>
-      </c>
-      <c r="C148" t="s">
-        <v>296</v>
-      </c>
-      <c r="E148" t="s">
-        <v>415</v>
-      </c>
-      <c r="F148" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>219</v>
       </c>
@@ -4404,81 +4796,111 @@
         <v>222</v>
       </c>
       <c r="C149" t="s">
+        <v>295</v>
+      </c>
+      <c r="D149" t="s">
+        <v>171</v>
+      </c>
+      <c r="F149" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" t="s">
+        <v>413</v>
+      </c>
+      <c r="H149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>219</v>
+      </c>
+      <c r="B150" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" t="s">
         <v>297</v>
       </c>
-      <c r="E149" t="s">
-        <v>415</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" t="s">
+        <v>413</v>
+      </c>
+      <c r="H150" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>219</v>
-      </c>
-      <c r="B150" t="s">
-        <v>298</v>
-      </c>
-      <c r="C150" t="s">
-        <v>299</v>
-      </c>
-      <c r="E150" t="s">
-        <v>415</v>
-      </c>
-      <c r="F150" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C151" t="s">
-        <v>316</v>
-      </c>
-      <c r="E151" t="s">
-        <v>414</v>
+        <v>314</v>
+      </c>
+      <c r="D151" t="s">
+        <v>171</v>
       </c>
       <c r="F151" t="s">
+        <v>169</v>
+      </c>
+      <c r="G151" t="s">
+        <v>412</v>
+      </c>
+      <c r="H151" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C152" t="s">
-        <v>324</v>
-      </c>
-      <c r="E152" t="s">
-        <v>412</v>
+        <v>322</v>
+      </c>
+      <c r="D152" t="s">
+        <v>185</v>
       </c>
       <c r="F152" t="s">
+        <v>169</v>
+      </c>
+      <c r="G152" t="s">
+        <v>410</v>
+      </c>
+      <c r="H152" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
-      </c>
-      <c r="E153" t="s">
-        <v>411</v>
+        <v>326</v>
+      </c>
+      <c r="D153" t="s">
+        <v>171</v>
       </c>
       <c r="F153" t="s">
+        <v>169</v>
+      </c>
+      <c r="G153" t="s">
+        <v>409</v>
+      </c>
+      <c r="H153" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>219</v>
       </c>
@@ -4486,222 +4908,325 @@
         <v>240</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
-      </c>
-      <c r="E154" t="s">
-        <v>413</v>
+        <v>356</v>
+      </c>
+      <c r="D154" t="s">
+        <v>170</v>
       </c>
       <c r="F154" t="s">
+        <v>169</v>
+      </c>
+      <c r="G154" t="s">
+        <v>411</v>
+      </c>
+      <c r="H154" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
-      </c>
-      <c r="E155" t="s">
-        <v>413</v>
+        <v>307</v>
+      </c>
+      <c r="D155" t="s">
+        <v>171</v>
       </c>
       <c r="F155" t="s">
+        <v>171</v>
+      </c>
+      <c r="G155" t="s">
+        <v>411</v>
+      </c>
+      <c r="H155" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>219</v>
       </c>
       <c r="B156" t="s">
         <v>229</v>
       </c>
-      <c r="E156" t="s">
-        <v>412</v>
+      <c r="D156" t="s">
+        <v>169</v>
       </c>
       <c r="F156" t="s">
+        <v>169</v>
+      </c>
+      <c r="G156" t="s">
+        <v>410</v>
+      </c>
+      <c r="H156" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>393</v>
-      </c>
-      <c r="E157" t="s">
-        <v>412</v>
+        <v>391</v>
+      </c>
+      <c r="D157" t="s">
+        <v>169</v>
       </c>
       <c r="F157" t="s">
+        <v>169</v>
+      </c>
+      <c r="G157" t="s">
+        <v>410</v>
+      </c>
+      <c r="H157" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>386</v>
-      </c>
-      <c r="E158" t="s">
-        <v>411</v>
+        <v>384</v>
+      </c>
+      <c r="D158" t="s">
+        <v>169</v>
       </c>
       <c r="F158" t="s">
+        <v>169</v>
+      </c>
+      <c r="G158" t="s">
+        <v>409</v>
+      </c>
+      <c r="H158" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>231</v>
       </c>
-      <c r="E159" t="s">
-        <v>410</v>
+      <c r="D159" t="s">
+        <v>169</v>
       </c>
       <c r="F159" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159" t="s">
+        <v>408</v>
+      </c>
+      <c r="H159" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
+        <v>385</v>
+      </c>
+      <c r="D160" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" t="s">
+        <v>169</v>
+      </c>
+      <c r="G160" t="s">
+        <v>408</v>
+      </c>
+      <c r="H160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>424</v>
+      </c>
+      <c r="D161" t="s">
+        <v>171</v>
+      </c>
+      <c r="F161" t="s">
+        <v>169</v>
+      </c>
+      <c r="G161" t="s">
+        <v>407</v>
+      </c>
+      <c r="H161" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>386</v>
+      </c>
+      <c r="D162" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162" t="s">
+        <v>169</v>
+      </c>
+      <c r="G162" t="s">
+        <v>407</v>
+      </c>
+      <c r="H162" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>387</v>
       </c>
-      <c r="E160" t="s">
-        <v>410</v>
-      </c>
-      <c r="F160" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>426</v>
-      </c>
-      <c r="E161" t="s">
-        <v>409</v>
-      </c>
-      <c r="F161" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>388</v>
-      </c>
-      <c r="E162" t="s">
-        <v>409</v>
-      </c>
-      <c r="F162" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>389</v>
-      </c>
-      <c r="E163" t="s">
-        <v>409</v>
+      <c r="D163" t="s">
+        <v>169</v>
       </c>
       <c r="F163" t="s">
+        <v>169</v>
+      </c>
+      <c r="G163" t="s">
+        <v>407</v>
+      </c>
+      <c r="H163" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>219</v>
       </c>
       <c r="B164" t="s">
         <v>241</v>
       </c>
-      <c r="E164" t="s">
-        <v>408</v>
+      <c r="D164" t="s">
+        <v>170</v>
       </c>
       <c r="F164" t="s">
+        <v>169</v>
+      </c>
+      <c r="G164" t="s">
+        <v>406</v>
+      </c>
+      <c r="H164" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>219</v>
       </c>
       <c r="B165" t="s">
         <v>242</v>
       </c>
-      <c r="E165" t="s">
-        <v>408</v>
+      <c r="D165" t="s">
+        <v>170</v>
       </c>
       <c r="F165" t="s">
+        <v>169</v>
+      </c>
+      <c r="G165" t="s">
+        <v>406</v>
+      </c>
+      <c r="H165" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
+        <v>426</v>
+      </c>
+      <c r="D166" t="s">
+        <v>171</v>
+      </c>
+      <c r="F166" t="s">
+        <v>169</v>
+      </c>
+      <c r="G166" t="s">
+        <v>406</v>
+      </c>
+      <c r="H166" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>244</v>
       </c>
-      <c r="E166" t="s">
-        <v>408</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="D167" t="s">
+        <v>171</v>
+      </c>
+      <c r="F167" t="s">
+        <v>169</v>
+      </c>
+      <c r="G167" t="s">
+        <v>406</v>
+      </c>
+      <c r="H167" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>245</v>
-      </c>
-      <c r="E167" t="s">
-        <v>408</v>
-      </c>
-      <c r="F167" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>388</v>
+      </c>
+      <c r="D168" t="s">
+        <v>171</v>
+      </c>
+      <c r="F168" t="s">
+        <v>169</v>
+      </c>
+      <c r="G168" t="s">
+        <v>406</v>
+      </c>
+      <c r="H168" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" t="s">
+        <v>389</v>
+      </c>
+      <c r="D169" t="s">
+        <v>170</v>
+      </c>
+      <c r="F169" t="s">
+        <v>169</v>
+      </c>
+      <c r="G169" t="s">
+        <v>405</v>
+      </c>
+      <c r="H169" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>219</v>
+      </c>
+      <c r="B170" t="s">
         <v>390</v>
       </c>
-      <c r="E168" t="s">
-        <v>408</v>
-      </c>
-      <c r="F168" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>219</v>
-      </c>
-      <c r="B169" t="s">
-        <v>391</v>
-      </c>
-      <c r="E169" t="s">
-        <v>407</v>
-      </c>
-      <c r="F169" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>219</v>
-      </c>
-      <c r="B170" t="s">
-        <v>392</v>
-      </c>
-      <c r="E170" t="s">
-        <v>407</v>
+      <c r="D170" t="s">
+        <v>170</v>
       </c>
       <c r="F170" t="s">
-        <v>251</v>
+        <v>169</v>
+      </c>
+      <c r="G170" t="s">
+        <v>405</v>
+      </c>
+      <c r="H170" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C111" r:id="rId1"/>
     <hyperlink ref="C90" r:id="rId2"/>
+    <hyperlink ref="C125" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 UNCLASSIFIED Header&amp;1#_x000D_&amp;C&amp;G</oddHeader>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 UNCLASSIFIED Footer</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
 </worksheet>
 </file>
--- a/priorities/axe_rules.xlsx
+++ b/priorities/axe_rules.xlsx
@@ -14,6 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="impact">[1]Definitions!$A$2:$A$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="427">
   <si>
     <t>url</t>
   </si>
@@ -1379,6 +1385,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="data"/>
+      <sheetName val="Definitions"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Critical</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Serious</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Moderate</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Minor</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1681,7 +1723,7 @@
   <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E84" sqref="E84:E170"/>
@@ -3366,6 +3408,9 @@
       <c r="D84" t="s">
         <v>169</v>
       </c>
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
       <c r="F84" t="s">
         <v>169</v>
       </c>
@@ -3389,6 +3434,9 @@
       <c r="D85" t="s">
         <v>169</v>
       </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
       <c r="F85" t="s">
         <v>169</v>
       </c>
@@ -3411,6 +3459,9 @@
       </c>
       <c r="D86" t="s">
         <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>169</v>
       </c>
       <c r="F86" t="s">
         <v>169</v>
@@ -3432,6 +3483,9 @@
       <c r="D87" t="s">
         <v>171</v>
       </c>
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
       <c r="F87" t="s">
         <v>169</v>
       </c>
@@ -3452,6 +3506,9 @@
       <c r="D88" t="s">
         <v>171</v>
       </c>
+      <c r="E88" t="s">
+        <v>169</v>
+      </c>
       <c r="F88" t="s">
         <v>169</v>
       </c>
@@ -3472,6 +3529,9 @@
       <c r="D89" t="s">
         <v>169</v>
       </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
       <c r="F89" t="s">
         <v>169</v>
       </c>
@@ -3492,6 +3552,9 @@
       <c r="D90" t="s">
         <v>171</v>
       </c>
+      <c r="E90" t="s">
+        <v>171</v>
+      </c>
       <c r="F90" t="s">
         <v>169</v>
       </c>
@@ -3513,6 +3576,9 @@
         <v>263</v>
       </c>
       <c r="D91" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" t="s">
         <v>169</v>
       </c>
       <c r="F91" t="s">
@@ -3535,6 +3601,9 @@
       <c r="D92" t="s">
         <v>171</v>
       </c>
+      <c r="E92" t="s">
+        <v>169</v>
+      </c>
       <c r="F92" t="s">
         <v>169</v>
       </c>
@@ -3558,6 +3627,9 @@
       <c r="D93" t="s">
         <v>171</v>
       </c>
+      <c r="E93" t="s">
+        <v>169</v>
+      </c>
       <c r="F93" t="s">
         <v>169</v>
       </c>
@@ -3581,6 +3653,9 @@
       <c r="D94" t="s">
         <v>170</v>
       </c>
+      <c r="E94" t="s">
+        <v>170</v>
+      </c>
       <c r="F94" t="s">
         <v>169</v>
       </c>
@@ -3603,6 +3678,9 @@
       </c>
       <c r="D95" t="s">
         <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>169</v>
       </c>
       <c r="F95" t="s">
         <v>169</v>
@@ -3624,6 +3702,9 @@
       <c r="D96" t="s">
         <v>171</v>
       </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
       <c r="F96" t="s">
         <v>169</v>
       </c>
@@ -3647,6 +3728,9 @@
       <c r="D97" t="s">
         <v>170</v>
       </c>
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
       <c r="F97" t="s">
         <v>169</v>
       </c>
@@ -3670,6 +3754,9 @@
       <c r="D98" t="s">
         <v>170</v>
       </c>
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
       <c r="F98" t="s">
         <v>169</v>
       </c>
@@ -3693,6 +3780,9 @@
       <c r="D99" t="s">
         <v>169</v>
       </c>
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
       <c r="F99" t="s">
         <v>169</v>
       </c>
@@ -3714,6 +3804,9 @@
         <v>266</v>
       </c>
       <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" t="s">
         <v>170</v>
       </c>
       <c r="F100" t="s">
@@ -3736,6 +3829,9 @@
       <c r="D101" t="s">
         <v>170</v>
       </c>
+      <c r="E101" t="s">
+        <v>170</v>
+      </c>
       <c r="F101" t="s">
         <v>169</v>
       </c>
@@ -3759,6 +3855,9 @@
       <c r="D102" t="s">
         <v>169</v>
       </c>
+      <c r="E102" t="s">
+        <v>185</v>
+      </c>
       <c r="F102" t="s">
         <v>169</v>
       </c>
@@ -3782,6 +3881,9 @@
       <c r="D103" t="s">
         <v>169</v>
       </c>
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
       <c r="F103" t="s">
         <v>169</v>
       </c>
@@ -3803,6 +3905,9 @@
         <v>283</v>
       </c>
       <c r="D104" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" t="s">
         <v>169</v>
       </c>
       <c r="F104" t="s">
@@ -3825,6 +3930,9 @@
       <c r="D105" t="s">
         <v>169</v>
       </c>
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
       <c r="F105" t="s">
         <v>171</v>
       </c>
@@ -3848,6 +3956,9 @@
       <c r="D106" t="s">
         <v>169</v>
       </c>
+      <c r="E106" t="s">
+        <v>169</v>
+      </c>
       <c r="F106" t="s">
         <v>171</v>
       </c>
@@ -3871,6 +3982,9 @@
       <c r="D107" t="s">
         <v>185</v>
       </c>
+      <c r="E107" t="s">
+        <v>185</v>
+      </c>
       <c r="F107" t="s">
         <v>169</v>
       </c>
@@ -3892,6 +4006,9 @@
         <v>270</v>
       </c>
       <c r="D108" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" t="s">
         <v>185</v>
       </c>
       <c r="F108" t="s">
@@ -3914,6 +4031,9 @@
       <c r="D109" t="s">
         <v>171</v>
       </c>
+      <c r="E109" t="s">
+        <v>169</v>
+      </c>
       <c r="F109" t="s">
         <v>169</v>
       </c>
@@ -3934,6 +4054,9 @@
       <c r="D110" t="s">
         <v>171</v>
       </c>
+      <c r="E110" t="s">
+        <v>169</v>
+      </c>
       <c r="F110" t="s">
         <v>169</v>
       </c>
@@ -3957,6 +4080,9 @@
       <c r="D111" t="s">
         <v>171</v>
       </c>
+      <c r="E111" t="s">
+        <v>169</v>
+      </c>
       <c r="F111" t="s">
         <v>169</v>
       </c>
@@ -3980,6 +4106,9 @@
       <c r="D112" t="s">
         <v>169</v>
       </c>
+      <c r="E112" t="s">
+        <v>170</v>
+      </c>
       <c r="F112" t="s">
         <v>169</v>
       </c>
@@ -4003,6 +4132,9 @@
       <c r="D113" t="s">
         <v>169</v>
       </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
       <c r="F113" t="s">
         <v>169</v>
       </c>
@@ -4024,6 +4156,9 @@
         <v>288</v>
       </c>
       <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" t="s">
         <v>169</v>
       </c>
       <c r="F114" t="s">
@@ -4046,6 +4181,9 @@
       <c r="D115" t="s">
         <v>171</v>
       </c>
+      <c r="E115" t="s">
+        <v>169</v>
+      </c>
       <c r="F115" t="s">
         <v>169</v>
       </c>
@@ -4067,6 +4205,9 @@
         <v>290</v>
       </c>
       <c r="D116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E116" t="s">
         <v>169</v>
       </c>
       <c r="F116" t="s">
@@ -4089,6 +4230,9 @@
       <c r="D117" t="s">
         <v>171</v>
       </c>
+      <c r="E117" t="s">
+        <v>169</v>
+      </c>
       <c r="F117" t="s">
         <v>169</v>
       </c>
@@ -4109,6 +4253,9 @@
       <c r="D118" t="s">
         <v>171</v>
       </c>
+      <c r="E118" t="s">
+        <v>169</v>
+      </c>
       <c r="F118" t="s">
         <v>169</v>
       </c>
@@ -4129,6 +4276,9 @@
       <c r="D119" t="s">
         <v>169</v>
       </c>
+      <c r="E119" t="s">
+        <v>170</v>
+      </c>
       <c r="F119" t="s">
         <v>169</v>
       </c>
@@ -4152,6 +4302,9 @@
       <c r="D120" t="s">
         <v>171</v>
       </c>
+      <c r="E120" t="s">
+        <v>171</v>
+      </c>
       <c r="F120" t="s">
         <v>169</v>
       </c>
@@ -4175,6 +4328,9 @@
       <c r="D121" t="s">
         <v>171</v>
       </c>
+      <c r="E121" t="s">
+        <v>169</v>
+      </c>
       <c r="F121" t="s">
         <v>169</v>
       </c>
@@ -4198,6 +4354,9 @@
       <c r="D122" t="s">
         <v>171</v>
       </c>
+      <c r="E122" t="s">
+        <v>169</v>
+      </c>
       <c r="F122" t="s">
         <v>169</v>
       </c>
@@ -4221,6 +4380,9 @@
       <c r="D123" t="s">
         <v>169</v>
       </c>
+      <c r="E123" t="s">
+        <v>170</v>
+      </c>
       <c r="F123" t="s">
         <v>169</v>
       </c>
@@ -4244,6 +4406,9 @@
       <c r="D124" t="s">
         <v>170</v>
       </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
       <c r="F124" t="s">
         <v>169</v>
       </c>
@@ -4266,6 +4431,9 @@
       </c>
       <c r="D125" t="s">
         <v>169</v>
+      </c>
+      <c r="E125" t="s">
+        <v>170</v>
       </c>
       <c r="F125" t="s">
         <v>169</v>
@@ -4287,6 +4455,9 @@
       <c r="D126" t="s">
         <v>170</v>
       </c>
+      <c r="E126" t="s">
+        <v>170</v>
+      </c>
       <c r="F126" t="s">
         <v>169</v>
       </c>
@@ -4310,6 +4481,9 @@
       <c r="D127" t="s">
         <v>169</v>
       </c>
+      <c r="E127" t="s">
+        <v>169</v>
+      </c>
       <c r="F127" t="s">
         <v>169</v>
       </c>
@@ -4333,6 +4507,9 @@
       <c r="D128" t="s">
         <v>171</v>
       </c>
+      <c r="E128" t="s">
+        <v>169</v>
+      </c>
       <c r="F128" t="s">
         <v>169</v>
       </c>
@@ -4356,6 +4533,9 @@
       <c r="D129" t="s">
         <v>169</v>
       </c>
+      <c r="E129" t="s">
+        <v>170</v>
+      </c>
       <c r="F129" t="s">
         <v>169</v>
       </c>
@@ -4377,6 +4557,9 @@
         <v>369</v>
       </c>
       <c r="D130" t="s">
+        <v>185</v>
+      </c>
+      <c r="E130" t="s">
         <v>185</v>
       </c>
       <c r="F130" t="s">
@@ -4399,6 +4582,9 @@
       <c r="D131" t="s">
         <v>169</v>
       </c>
+      <c r="E131" t="s">
+        <v>170</v>
+      </c>
       <c r="F131" t="s">
         <v>169</v>
       </c>
@@ -4419,6 +4605,9 @@
       <c r="D132" t="s">
         <v>170</v>
       </c>
+      <c r="E132" t="s">
+        <v>171</v>
+      </c>
       <c r="F132" t="s">
         <v>169</v>
       </c>
@@ -4440,6 +4629,9 @@
         <v>309</v>
       </c>
       <c r="D133" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" t="s">
         <v>169</v>
       </c>
       <c r="F133" t="s">
@@ -4462,6 +4654,9 @@
       <c r="D134" t="s">
         <v>171</v>
       </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
       <c r="F134" t="s">
         <v>169</v>
       </c>
@@ -4485,6 +4680,9 @@
       <c r="D135" t="s">
         <v>171</v>
       </c>
+      <c r="E135" t="s">
+        <v>169</v>
+      </c>
       <c r="F135" t="s">
         <v>169</v>
       </c>
@@ -4508,6 +4706,9 @@
       <c r="D136" t="s">
         <v>169</v>
       </c>
+      <c r="E136" t="s">
+        <v>170</v>
+      </c>
       <c r="F136" t="s">
         <v>169</v>
       </c>
@@ -4529,6 +4730,9 @@
         <v>324</v>
       </c>
       <c r="D137" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" t="s">
         <v>169</v>
       </c>
       <c r="F137" t="s">
@@ -4551,6 +4755,9 @@
       <c r="D138" t="s">
         <v>169</v>
       </c>
+      <c r="E138" t="s">
+        <v>169</v>
+      </c>
       <c r="F138" t="s">
         <v>169</v>
       </c>
@@ -4573,6 +4780,9 @@
       </c>
       <c r="D139" t="s">
         <v>171</v>
+      </c>
+      <c r="E139" t="s">
+        <v>170</v>
       </c>
       <c r="F139" t="s">
         <v>169</v>
@@ -4594,6 +4804,9 @@
       <c r="D140" t="s">
         <v>169</v>
       </c>
+      <c r="E140" t="s">
+        <v>169</v>
+      </c>
       <c r="F140" t="s">
         <v>169</v>
       </c>
@@ -4617,6 +4830,9 @@
       <c r="D141" t="s">
         <v>170</v>
       </c>
+      <c r="E141" t="s">
+        <v>169</v>
+      </c>
       <c r="F141" t="s">
         <v>169</v>
       </c>
@@ -4640,6 +4856,9 @@
       <c r="D142" t="s">
         <v>171</v>
       </c>
+      <c r="E142" t="s">
+        <v>170</v>
+      </c>
       <c r="F142" t="s">
         <v>169</v>
       </c>
@@ -4663,6 +4882,9 @@
       <c r="D143" t="s">
         <v>169</v>
       </c>
+      <c r="E143" t="s">
+        <v>170</v>
+      </c>
       <c r="F143" t="s">
         <v>169</v>
       </c>
@@ -4686,6 +4908,9 @@
       <c r="D144" t="s">
         <v>171</v>
       </c>
+      <c r="E144" t="s">
+        <v>169</v>
+      </c>
       <c r="F144" t="s">
         <v>169</v>
       </c>
@@ -4709,6 +4934,9 @@
       <c r="D145" t="s">
         <v>171</v>
       </c>
+      <c r="E145" t="s">
+        <v>169</v>
+      </c>
       <c r="F145" t="s">
         <v>169</v>
       </c>
@@ -4732,6 +4960,9 @@
       <c r="D146" t="s">
         <v>170</v>
       </c>
+      <c r="E146" t="s">
+        <v>170</v>
+      </c>
       <c r="F146" t="s">
         <v>169</v>
       </c>
@@ -4755,6 +4986,9 @@
       <c r="D147" t="s">
         <v>171</v>
       </c>
+      <c r="E147" t="s">
+        <v>169</v>
+      </c>
       <c r="F147" t="s">
         <v>169</v>
       </c>
@@ -4778,6 +5012,9 @@
       <c r="D148" t="s">
         <v>171</v>
       </c>
+      <c r="E148" t="s">
+        <v>169</v>
+      </c>
       <c r="F148" t="s">
         <v>170</v>
       </c>
@@ -4801,6 +5038,9 @@
       <c r="D149" t="s">
         <v>171</v>
       </c>
+      <c r="E149" t="s">
+        <v>169</v>
+      </c>
       <c r="F149" t="s">
         <v>170</v>
       </c>
@@ -4824,6 +5064,9 @@
       <c r="D150" t="s">
         <v>169</v>
       </c>
+      <c r="E150" t="s">
+        <v>171</v>
+      </c>
       <c r="F150" t="s">
         <v>170</v>
       </c>
@@ -4847,6 +5090,9 @@
       <c r="D151" t="s">
         <v>171</v>
       </c>
+      <c r="E151" t="s">
+        <v>171</v>
+      </c>
       <c r="F151" t="s">
         <v>169</v>
       </c>
@@ -4869,6 +5115,9 @@
       </c>
       <c r="D152" t="s">
         <v>185</v>
+      </c>
+      <c r="E152" t="s">
+        <v>170</v>
       </c>
       <c r="F152" t="s">
         <v>169</v>
@@ -4890,6 +5139,9 @@
       <c r="D153" t="s">
         <v>171</v>
       </c>
+      <c r="E153" t="s">
+        <v>171</v>
+      </c>
       <c r="F153" t="s">
         <v>169</v>
       </c>
@@ -4912,6 +5164,9 @@
       </c>
       <c r="D154" t="s">
         <v>170</v>
+      </c>
+      <c r="E154" t="s">
+        <v>169</v>
       </c>
       <c r="F154" t="s">
         <v>169</v>
@@ -4933,6 +5188,9 @@
       <c r="D155" t="s">
         <v>171</v>
       </c>
+      <c r="E155" t="s">
+        <v>170</v>
+      </c>
       <c r="F155" t="s">
         <v>171</v>
       </c>
@@ -4951,6 +5209,9 @@
         <v>229</v>
       </c>
       <c r="D156" t="s">
+        <v>169</v>
+      </c>
+      <c r="E156" t="s">
         <v>169</v>
       </c>
       <c r="F156" t="s">
@@ -4990,6 +5251,9 @@
       <c r="D158" t="s">
         <v>169</v>
       </c>
+      <c r="E158" t="s">
+        <v>170</v>
+      </c>
       <c r="F158" t="s">
         <v>169</v>
       </c>
@@ -5007,6 +5271,9 @@
       <c r="D159" t="s">
         <v>169</v>
       </c>
+      <c r="E159" t="s">
+        <v>169</v>
+      </c>
       <c r="F159" t="s">
         <v>169</v>
       </c>
@@ -5024,6 +5291,9 @@
       <c r="D160" t="s">
         <v>169</v>
       </c>
+      <c r="E160" t="s">
+        <v>169</v>
+      </c>
       <c r="F160" t="s">
         <v>169</v>
       </c>
@@ -5041,6 +5311,9 @@
       <c r="D161" t="s">
         <v>171</v>
       </c>
+      <c r="E161" t="s">
+        <v>169</v>
+      </c>
       <c r="F161" t="s">
         <v>169</v>
       </c>
@@ -5095,6 +5368,9 @@
       <c r="D164" t="s">
         <v>170</v>
       </c>
+      <c r="E164" t="s">
+        <v>169</v>
+      </c>
       <c r="F164" t="s">
         <v>169</v>
       </c>
@@ -5114,6 +5390,9 @@
       </c>
       <c r="D165" t="s">
         <v>170</v>
+      </c>
+      <c r="E165" t="s">
+        <v>169</v>
       </c>
       <c r="F165" t="s">
         <v>169</v>
@@ -5132,6 +5411,9 @@
       <c r="D166" t="s">
         <v>171</v>
       </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
       <c r="F166" t="s">
         <v>169</v>
       </c>
@@ -5149,6 +5431,9 @@
       <c r="D167" t="s">
         <v>171</v>
       </c>
+      <c r="E167" t="s">
+        <v>169</v>
+      </c>
       <c r="F167" t="s">
         <v>169</v>
       </c>
@@ -5166,6 +5451,9 @@
       <c r="D168" t="s">
         <v>171</v>
       </c>
+      <c r="E168" t="s">
+        <v>169</v>
+      </c>
       <c r="F168" t="s">
         <v>169</v>
       </c>
@@ -5186,6 +5474,9 @@
       <c r="D169" t="s">
         <v>170</v>
       </c>
+      <c r="E169" t="s">
+        <v>170</v>
+      </c>
       <c r="F169" t="s">
         <v>169</v>
       </c>
@@ -5206,6 +5497,9 @@
       <c r="D170" t="s">
         <v>170</v>
       </c>
+      <c r="E170" t="s">
+        <v>169</v>
+      </c>
       <c r="F170" t="s">
         <v>169</v>
       </c>
@@ -5217,6 +5511,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E84:E170">
+      <formula1>impact</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C111" r:id="rId1"/>
     <hyperlink ref="C90" r:id="rId2"/>
